--- a/documents/10.项目总结报告/文档版本控制模板.xlsx
+++ b/documents/10.项目总结报告/文档版本控制模板.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaos\Desktop\文档规范\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/课程2/软件系统管理与配置/CM-Git/documents/10.项目总结报告/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="3740" yWindow="1160" windowWidth="32840" windowHeight="19700"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>***文档版本控制</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>文档名称</t>
   </si>
@@ -56,12 +58,104 @@
   <si>
     <t>备注</t>
   </si>
+  <si>
+    <t>项目总结报告</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总结报告文档版本控制</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总结报告1.0</t>
+    <rPh sb="0" eb="1">
+      <t>xiagn'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵帅</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'shuai</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在项目完成后，编写完成了《项目总结报告1.0》</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bian'xie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wan'cheng'l</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zong'jie</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -184,7 +278,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1368,120 +1462,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="81.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.6" customHeight="1">
+    <row r="1" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="39.6" customHeight="1">
+    <row r="2" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="9"/>
+    <row r="3" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.6" customHeight="1">
+    <row r="4" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
+    </row>
+    <row r="5" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="39.6" customHeight="1">
+    <row r="6" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="39.6" customHeight="1">
+    <row r="7" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="39.6" customHeight="1">
+    <row r="8" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="39.6" customHeight="1">
+    <row r="9" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="39.6" customHeight="1">
+    <row r="10" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="39.6" customHeight="1">
+    <row r="11" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="39.6" customHeight="1">
+    <row r="12" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
